--- a/workflow/accounts/output/output.xlsx
+++ b/workflow/accounts/output/output.xlsx
@@ -746,6 +746,205 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 結合子 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91F0959-DD8D-41F9-AD20-0E2DC2A99DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="1600200"/>
+          <a:ext cx="317500" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321D8AA1-7F2E-4016-8501-BC33EB4FF542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="1905000"/>
+          <a:ext cx="635000" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円: 塗りつぶしなし 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05A5C49-098F-4033-A8D0-45B736F96F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="5029200"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1304,5 +1503,6 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/workflow/accounts/output/output.xlsx
+++ b/workflow/accounts/output/output.xlsx
@@ -24,7 +24,7 @@
     <t>購買部</t>
   </si>
   <si>
-    <t>仕入れ先</t>
+    <t>仕入先</t>
   </si>
   <si>
     <t>経理部</t>
@@ -759,16 +759,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 結合子 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91F0959-DD8D-41F9-AD20-0E2DC2A99DEC}"/>
+        <xdr:cNvPr id="2" name="円: 塗りつぶしなし 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1DBC30-B8D6-4A93-9034-2686C7C7AC09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +777,151 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="660400" y="1600200"/>
-          <a:ext cx="317500" cy="317500"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円: 塗りつぶしなし 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74385758-298D-4E67-9E4A-5B88EDF9EF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="5029200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 結合子 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8616A4-9FC4-442A-B37E-8F603FFB6555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="5029200"/>
+          <a:ext cx="254000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -832,73 +976,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321D8AA1-7F2E-4016-8501-BC33EB4FF542}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="1905000"/>
-          <a:ext cx="635000" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円: 塗りつぶしなし 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05A5C49-098F-4033-A8D0-45B736F96F6E}"/>
+        <xdr:cNvPr id="5" name="フローチャート: 結合子 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2020D4-9EBA-4FD8-B119-B08837C95098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -906,12 +1000,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="5029200"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="donut">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="2641600" y="5029200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -934,14 +1036,4848 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 結合子 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D405AFB2-61DD-4BFE-9713-E23D118D250C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="5029200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 抜出し 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363ACA7C-5721-4D20-8866-22FB393D3F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="1828800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ひし形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B72F607-FC07-4F31-BB6A-4BA4311C2A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="1828800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 結合子 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02067BB3-BC7C-4EB0-8A44-606640E28FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5283200" y="1371600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 結合子 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6B783-599C-4384-9FAE-B2EE3DAFBAF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="1371600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 和接合 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A89D34-317C-4445-AAB5-34B8F54346E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1828800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 和接合 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EA1F78-C1CC-49F8-8FFA-4793D03F35B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1371600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 結合子 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAE6EE0-3BD3-4FCA-AAB4-5221CF1C298F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1143000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 結合子 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD29CFB-54AD-460F-9FBB-F1D73CB1DA33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="1143000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 結合子 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6509DE1A-6D86-4E98-964E-F47B29736CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="914400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 結合子 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D11ADE-1F30-494E-B2DE-D21903B1B1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="914400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 結合子 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B73AD2-7A0C-49FE-A3F2-D9F3267401A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9245600" y="685800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 組合せ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC4C6B2-4328-4DFB-A13D-3BEE3A8FB093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9245600" y="1143000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 結合子 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72172B9-0856-45BD-996A-98318AC2D432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="914400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 抜出し 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F8BAEA-D1B5-40FB-B8E9-E4F70EC8A132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10566400" y="5029200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 抜出し 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B242E2A-5F01-4CCE-A408-FCDFD5211C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10566400" y="685800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 組合せ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDCFCEE-56F9-40CA-B827-61E1B7D01197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="685800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート: 結合子 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320BF54-C385-424B-8EC8-A7CF0A2689A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11226800" y="4800600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート: 結合子 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC9D89C-3766-4F51-AB83-9F4C881F383E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="4800600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="フローチャート: 結合子 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCB9B5-4B4C-4E79-9C51-8A3B6899B7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="5029200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A64589-210B-451A-8513-DB495B9D2D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="4343400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フローチャート: 結合子 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA42947-7859-4F43-BD55-1EF5CC6971BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12547600" y="4343400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="フローチャート: 結合子 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BE9F4D-F687-46DA-8A9C-6C395841DF43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12547600" y="4800600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="フローチャート: 抜出し 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2B4E97-5926-4187-96F0-C4C08F63B303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13208000" y="2514600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート: 組合せ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF85B58-DC60-4CF7-8B06-B8AA976A9ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="2743200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="ひし形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73CA32F-F5AD-454E-A711-D47E32FE1131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14528800" y="2743200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="ひし形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF678518-B0F6-4EB2-87EC-1FB710D24C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="2514600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="ひし形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8448C69-772D-4CB4-80F1-AD12A5BF56D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12547600" y="2286000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="フローチャート: 結合子 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA906EE-C8B9-4140-815F-92D196A790CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14528800" y="2514600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="フローチャート: 組合せ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7A7D9A-2639-4FF7-83E8-31AD746B3577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15849600" y="2743200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フローチャート: 組合せ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C74246A-B90F-4E2F-8399-F7BBB4181C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15849600" y="2971800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート: 和接合 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA965DF6-AFB7-46A7-B7C3-69E4DCC0DDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="2971800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="フローチャート: 和接合 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7426C7CD-B010-4D76-A45F-0297C23675AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="2514600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フローチャート: 結合子 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F783596-6F6E-48E4-9432-B3C0EF3AB934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="2057400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート: 結合子 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602ABEE-1683-4462-9861-36FBC7F40EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17170400" y="2057400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 抜出し 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA399B72-F269-49FA-8CFB-B9858B3E0A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17170400" y="8229600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="フローチャート: 結合子 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE4A36B-CBF6-470F-835A-96BA0D5475FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="7772400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 結合子 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6803ABD9-DF77-4A6E-B49A-699182C8B70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18491200" y="7772400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フローチャート: 結合子 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5E109E-DBE9-4242-A8E0-AD16DD5EABA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20472400" y="7772400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート: 結合子 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6020E0FB-2181-44F3-8DB3-E29E69CF264A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21132800" y="7772400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 組合せ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAC57E5-956A-4B21-836F-637D8B9BC573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21132800" y="8229600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="コネクタ: カギ線 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAC94CA-4A51-4AE3-8ADD-DF71FD419AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-469900" y="3111500"/>
+          <a:ext cx="3175000" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E591F267-F6D2-4FEB-B26A-47BA79BCA11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574800" y="5156200"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B8CF5C-3FA8-4E73-A34F-B69250BE46EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2235200" y="5156200"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B026CDC7-4B4E-4059-9B4B-396E143657FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="5156200"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F2C84A-A442-4B4E-897C-35186DB02E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2286000" y="3225800"/>
+          <a:ext cx="2946400" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A88AF8F-EFA2-4584-94ED-8AC60B84C3D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="1955800"/>
+          <a:ext cx="469900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C705E2EB-B142-41B9-AA51-44F72947B6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1955800"/>
+          <a:ext cx="1727200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A0FFB6-4B12-40FE-97DC-939A4A471CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="6"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537200" y="1498600"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBDA5DE-1413-48C4-B0FC-AB8E67A59650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="6"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="1498600"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D084A86-616A-4101-98EB-8BA7FBEB96B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="6"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="1270000"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EA2A00-F992-4B31-8947-02345BEA5D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="6"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="1270000"/>
+          <a:ext cx="1790700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65296DB8-484A-460D-90EA-02CBBD869B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="6"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8178800" y="1041400"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612865E9-753B-4E56-8F53-042B567BF5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="6"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="1041400"/>
+          <a:ext cx="1066800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BB6722-C6D5-4845-A083-612BFB7BB4F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="6"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9499600" y="812800"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458A334-1FCD-40F4-A1F3-544B7A593B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10756900" y="812800"/>
+          <a:ext cx="1193800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408D1F7-2033-49C5-A3F6-DDB07D265996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="4"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8432800" y="2768600"/>
+          <a:ext cx="3860800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CD7302-B2EE-4165-A63C-7EC0927C2953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10756900" y="5156200"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D5DD88-1523-4683-9C11-54414F0B7B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="6"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11480800" y="4927600"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0622533A-A992-4B8D-9BEF-7803016073E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="6"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12141200" y="4927600"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1D554B-64E4-4C74-A090-7366DD6D0D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12141200" y="4470400"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EC5EF5-ECC5-42BF-B887-0AA1457838A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12674600" y="2540000"/>
+          <a:ext cx="0" cy="1803400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7576A462-707B-4939-9D74-726E42715F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12801600" y="2768600"/>
+          <a:ext cx="533400" cy="2159000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C53B85D-FAE0-46C5-9562-3D829B511C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13398500" y="2641600"/>
+          <a:ext cx="469900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0FE3E-CD7B-454D-BE37-E9A459DA6920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14122400" y="2641600"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C20D07C-5329-4DD0-99E5-CA80EDC8D872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="6"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14782800" y="2641600"/>
+          <a:ext cx="1727200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F708A32-47DC-4B58-B5E8-8891A359C609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14058900" y="2870200"/>
+          <a:ext cx="469900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E7AFAF-34FD-4EC5-A07D-7D169AEAEFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14782800" y="2870200"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBB8719-FC80-495A-B97B-073B0A79EDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="37" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16040100" y="3098800"/>
+          <a:ext cx="469900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD77160-4D48-4046-B0D9-6D9773412FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="6"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="2184400"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986FFB2A-B0AA-44FD-9236-BEA371DC67A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="4"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17297400" y="2311400"/>
+          <a:ext cx="0" cy="5918200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B05287-495A-42B7-B919-D38A6D788FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17360900" y="8356600"/>
+          <a:ext cx="3835400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4731613F-AE30-49B4-8169-D498C45FEEEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="6"/>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18084800" y="7899400"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8742049-0B60-48A4-8734-9BA4DB374368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="6"/>
+          <a:endCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18745200" y="7899400"/>
+          <a:ext cx="1727200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEAEDC-D674-46B0-9D93-6AA8F1AF3B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="6"/>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20726400" y="7899400"/>
+          <a:ext cx="406400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>

--- a/workflow/accounts/output/output.xlsx
+++ b/workflow/accounts/output/output.xlsx
@@ -19,7 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>System Workflow</t>
+    <phoneticPr fontId="18"/>
+  </si>
   <si>
     <t>購買部</t>
   </si>
@@ -34,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +197,22 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -376,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -542,6 +562,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -671,23 +700,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,16 +803,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="円: 塗りつぶしなし 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1DBC30-B8D6-4A93-9034-2686C7C7AC09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE287F5B-2714-4337-949B-1DBB93C99802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,8 +820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="1600200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="1111250" y="4445000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
           <a:avLst/>
@@ -831,16 +875,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="円: 塗りつぶしなし 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74385758-298D-4E67-9E4A-5B88EDF9EF0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABA85C-3122-464C-A717-7EB3ABACFB98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,8 +892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="5029200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="2222500" y="13970000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
           <a:avLst/>
@@ -903,16 +947,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="フローチャート: 結合子 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8616A4-9FC4-442A-B37E-8F603FFB6555}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F79854-B928-4F99-BAE8-B08C88A59C5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981200" y="5029200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="3333750" y="13970000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -957,14 +1001,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -983,16 +1027,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="フローチャート: 結合子 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2020D4-9EBA-4FD8-B119-B08837C95098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A9505-83CC-4F27-AF9C-D4C62DE54C6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,8 +1044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2641600" y="5029200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="4445000" y="13970000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1037,14 +1081,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>E</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1063,16 +1107,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="フローチャート: 結合子 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D405AFB2-61DD-4BFE-9713-E23D118D250C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C44B90-4CE6-4980-90A5-D5C104AAD291}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,8 +1124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302000" y="5029200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="5556250" y="13970000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1117,7 +1161,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1138,16 +1182,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="フローチャート: 抜出し 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363ACA7C-5721-4D20-8866-22FB393D3F0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC23CA94-BEBF-4B8D-8DFA-E612CE49DA99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,8 +1199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="1828800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="6667500" y="5080000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -1206,16 +1250,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ひし形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B72F607-FC07-4F31-BB6A-4BA4311C2A26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D9CE50-D37B-4F6D-B0E0-F294B8D46F3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,8 +1267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4622800" y="1828800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="7778750" y="5080000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1274,16 +1318,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="フローチャート: 結合子 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02067BB3-BC7C-4EB0-8A44-606640E28FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DCBFA0-C838-4A0A-9AAB-6BEEB0BE5DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,8 +1335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5283200" y="1371600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="8890000" y="3810000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1328,14 +1372,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1354,16 +1398,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="フローチャート: 結合子 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6B783-599C-4384-9FAE-B2EE3DAFBAF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211C178F-D013-4D97-A907-8AC0A29107FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,8 +1415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="1371600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="10001250" y="3810000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1408,14 +1452,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1434,16 +1478,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="フローチャート: 和接合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A89D34-317C-4445-AAB5-34B8F54346E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAD3B1A-8895-4C93-8951-FDE323973311}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,8 +1495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6604000" y="1828800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="11112500" y="5080000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
           <a:avLst/>
@@ -1502,16 +1546,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="フローチャート: 和接合 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EA1F78-C1CC-49F8-8FFA-4793D03F35B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB160751-B8ED-4144-8A38-42AA1999BD22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,8 +1563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6604000" y="1371600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="11112500" y="3810000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
           <a:avLst/>
@@ -1570,16 +1614,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="フローチャート: 結合子 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAE6EE0-3BD3-4FCA-AAB4-5221CF1C298F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FFBCF6-F92F-4181-A72D-01B66C3E9107}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,8 +1631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6604000" y="1143000"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="11112500" y="3175000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1624,14 +1668,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1650,16 +1694,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="フローチャート: 結合子 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD29CFB-54AD-460F-9FBB-F1D73CB1DA33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB09EDE0-25C2-45CA-8E38-051ECFA603F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,8 +1711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7264400" y="1143000"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="12223750" y="3175000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1704,14 +1748,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>S</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1730,16 +1774,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="フローチャート: 結合子 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6509DE1A-6D86-4E98-964E-F47B29736CD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4A23D9-3F9B-4AAD-A7FB-372324975D09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,8 +1791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="914400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="13335000" y="2540000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1784,14 +1828,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1810,16 +1854,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="フローチャート: 結合子 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D11ADE-1F30-494E-B2DE-D21903B1B1AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8141FAD2-DFF1-4110-B0A8-94F3E18DBA9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8585200" y="914400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="14446250" y="2540000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1864,14 +1908,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1890,16 +1934,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="フローチャート: 結合子 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B73AD2-7A0C-49FE-A3F2-D9F3267401A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D21AFF-3A73-4D15-8597-F0C2714840BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,8 +1951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9245600" y="685800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="15557500" y="1905000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -1944,14 +1988,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>C</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1970,16 +2014,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="フローチャート: 組合せ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC4C6B2-4328-4DFB-A13D-3BEE3A8FB093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1293F1-1C82-4B7D-8B86-FEAB02DB5899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,8 +2031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9245600" y="1143000"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="15557500" y="3175000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -2038,16 +2082,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="フローチャート: 結合子 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72172B9-0856-45BD-996A-98318AC2D432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83316D5-8BF2-4395-9205-FCA48B56088B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,8 +2099,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="914400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="16668750" y="2540000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2092,7 +2136,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2113,16 +2157,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="フローチャート: 抜出し 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F8BAEA-D1B5-40FB-B8E9-E4F70EC8A132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606D6FE7-DF4F-45A3-A029-783FF4D0086D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,8 +2174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10566400" y="5029200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="17780000" y="13970000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -2181,16 +2225,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="フローチャート: 抜出し 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B242E2A-5F01-4CCE-A408-FCDFD5211C61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65B8DFE-0FD0-4438-911C-796EE118DEFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,8 +2242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10566400" y="685800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="17780000" y="1905000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -2249,16 +2293,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="フローチャート: 組合せ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDCFCEE-56F9-40CA-B827-61E1B7D01197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0986E5-9562-48B0-AC94-F9B76725C78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,8 +2310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="685800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="20002500" y="1905000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -2317,16 +2361,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="フローチャート: 結合子 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320BF54-C385-424B-8EC8-A7CF0A2689A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2A7D6B-3C44-4418-B590-199215630148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,8 +2378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11226800" y="4800600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="18891250" y="13335000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2371,14 +2415,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2397,16 +2441,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="フローチャート: 結合子 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC9D89C-3766-4F51-AB83-9F4C881F383E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C052CBEF-67F3-47C3-B9C6-8D0A7090A1B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,8 +2458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="4800600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="20002500" y="13335000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2451,14 +2495,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>E</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2477,16 +2521,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="フローチャート: 結合子 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCB9B5-4B4C-4E79-9C51-8A3B6899B7A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAB0612-08C3-4E7C-A9A8-CC1DAD46B100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,8 +2538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="5029200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="20002500" y="13970000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2531,14 +2575,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>E</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2557,16 +2601,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A64589-210B-451A-8513-DB495B9D2D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14E8CA3-692D-493D-AB49-F6111F7AFB38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,8 +2618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="4343400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="20002500" y="12065000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2625,16 +2669,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="フローチャート: 結合子 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA42947-7859-4F43-BD55-1EF5CC6971BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861AE85F-40BE-496C-AEFA-DF0C8A573EF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,8 +2686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12547600" y="4343400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="21113750" y="12065000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2679,7 +2723,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2700,16 +2744,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="フローチャート: 結合子 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BE9F4D-F687-46DA-8A9C-6C395841DF43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFCFB98-29F2-44D9-8595-B5FDD860830C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,8 +2761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12547600" y="4800600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="21113750" y="13335000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2754,7 +2798,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2775,16 +2819,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="フローチャート: 抜出し 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2B4E97-5926-4187-96F0-C4C08F63B303}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A92BDFB-291D-488A-8932-49C275D9FED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,8 +2836,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13208000" y="2514600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="22225000" y="6985000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -2843,16 +2887,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="フローチャート: 組合せ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF85B58-DC60-4CF7-8B06-B8AA976A9ADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FB17E1-CB41-4036-9F98-556C0504483C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,8 +2904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13868400" y="2743200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="23336250" y="7620000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -2911,16 +2955,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="ひし形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73CA32F-F5AD-454E-A711-D47E32FE1131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406BDE97-5801-45C0-82DC-AFD00AE4BFA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,8 +2972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14528800" y="2743200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="24447500" y="7620000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2979,16 +3023,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="ひし形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF678518-B0F6-4EB2-87EC-1FB710D24C30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AB8C95-7577-4C90-B9A0-8D0A50786B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,8 +3040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13868400" y="2514600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="23336250" y="6985000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3047,16 +3091,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="ひし形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8448C69-772D-4CB4-80F1-AD12A5BF56D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E611AF2E-900A-4D3E-9937-998002776079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12547600" y="2286000"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="21113750" y="6350000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3115,16 +3159,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="フローチャート: 結合子 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA906EE-C8B9-4140-815F-92D196A790CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97B8B42-480E-42F9-8B97-587943B02E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,8 +3176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14528800" y="2514600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="24447500" y="6985000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3169,14 +3213,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3195,16 +3239,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="フローチャート: 組合せ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7A7D9A-2639-4FF7-83E8-31AD746B3577}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F1A647-8662-4778-B12D-AA643E1A44FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,8 +3256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15849600" y="2743200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="26670000" y="7620000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -3263,16 +3307,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="フローチャート: 組合せ 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C74246A-B90F-4E2F-8399-F7BBB4181C39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2F81CA-4A78-44F8-8223-64CC5B672159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,8 +3324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15849600" y="2971800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="26670000" y="8255000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -3331,16 +3375,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="フローチャート: 和接合 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA965DF6-AFB7-46A7-B7C3-69E4DCC0DDDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE1D2F1-947F-46D3-AE44-DDE5F68763E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,8 +3392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16510000" y="2971800"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="27781250" y="8255000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
           <a:avLst/>
@@ -3399,16 +3443,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="フローチャート: 和接合 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7426C7CD-B010-4D76-A45F-0297C23675AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE92B6D2-C8A8-495D-8283-80810042264F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,8 +3460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16510000" y="2514600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="27781250" y="6985000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
           <a:avLst/>
@@ -3467,16 +3511,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="フローチャート: 結合子 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F783596-6F6E-48E4-9432-B3C0EF3AB934}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB93336-A09A-4171-83AB-8A9E8FD334C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,8 +3528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16510000" y="2057400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="27781250" y="5715000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3521,14 +3565,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>F</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3547,16 +3591,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="フローチャート: 結合子 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602ABEE-1683-4462-9861-36FBC7F40EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC869F3-85BC-421F-A701-533CDFC10C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,8 +3608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17170400" y="2057400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="28892500" y="5715000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3601,14 +3645,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>P</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3627,16 +3671,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="フローチャート: 抜出し 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA399B72-F269-49FA-8CFB-B9858B3E0A0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82629CB-D288-418C-B817-4A1A96FE898B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3644,8 +3688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17170400" y="8229600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="28892500" y="22860000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -3695,16 +3739,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="フローチャート: 結合子 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE4A36B-CBF6-470F-835A-96BA0D5475FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732A91C6-4EDB-4DEE-9B64-FDD120B6FB8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,8 +3756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17830800" y="7772400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="30003750" y="21590000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3749,14 +3793,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PC</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3775,16 +3819,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="フローチャート: 結合子 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6803ABD9-DF77-4A6E-B49A-699182C8B70C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A7D585-6FA9-415C-9800-B2772B9B4321}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3792,8 +3836,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18491200" y="7772400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="31115000" y="21590000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3829,14 +3873,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>K</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3855,16 +3899,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="フローチャート: 結合子 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5E109E-DBE9-4242-A8E0-AD16DD5EABA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB85A386-9382-4925-8784-212230393017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,8 +3916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20472400" y="7772400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="34448750" y="21590000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3909,14 +3953,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PC</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3935,16 +3979,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="フローチャート: 結合子 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6020E0FB-2181-44F3-8DB3-E29E69CF264A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3AB410-CC9D-4690-93CF-0C977222F67B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,8 +3996,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21132800" y="7772400"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="35560000" y="21590000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3989,14 +4033,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>K</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -4015,16 +4059,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="フローチャート: 組合せ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAC57E5-956A-4B21-836F-637D8B9BC573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78CF114-DAE9-43EA-BB64-64035883BD89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4032,8 +4076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21132800" y="8229600"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="35560000" y="22860000"/>
+          <a:ext cx="508000" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -4077,13 +4121,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4092,7 +4136,7 @@
         <xdr:cNvPr id="47" name="コネクタ: カギ線 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAC94CA-4A51-4AE3-8ADD-DF71FD419AC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E0AEEE-D689-4258-9AC7-CA2625B7C796}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4103,14 +4147,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-469900" y="3111500"/>
-          <a:ext cx="3175000" cy="660400"/>
+          <a:off x="-2587625" y="8905875"/>
+          <a:ext cx="9017000" cy="1111250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 53231"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4132,22 +4179,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E591F267-F6D2-4FEB-B26A-47BA79BCA11C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB00387A-58F7-43D8-A13C-C158650F22E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,12 +4205,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1574800" y="5156200"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="2730500" y="14224000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4185,22 +4233,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B8CF5C-3FA8-4E73-A34F-B69250BE46EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176D49DC-7C68-45A2-BF0B-BC688126E556}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,12 +4259,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="5156200"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="3841750" y="14224000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4238,22 +4287,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B026CDC7-4B4E-4059-9B4B-396E143657FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81FE0E2-7E63-4A25-9FD4-7A177C1C4B52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4264,12 +4313,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="5156200"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="4953000" y="14224000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4291,13 +4341,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4306,7 +4356,7 @@
         <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F2C84A-A442-4B4E-897C-35186DB02E5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCA567B-8E8C-46E9-8815-A63F046E9882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4317,12 +4367,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2286000" y="3225800"/>
-          <a:ext cx="2946400" cy="660400"/>
+          <a:off x="2174875" y="9223375"/>
+          <a:ext cx="8382000" cy="1111250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4344,22 +4397,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A88AF8F-EFA2-4584-94ED-8AC60B84C3D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F306C72F-D2DC-4CDA-8984-5CF982399606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4370,12 +4423,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="1955800"/>
-          <a:ext cx="469900" cy="0"/>
+          <a:off x="7048500" y="5334000"/>
+          <a:ext cx="730250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4397,22 +4451,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C705E2EB-B142-41B9-AA51-44F72947B6A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A2BFB0-AB3E-4987-9FEE-4B51B192B8A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,12 +4477,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="1955800"/>
-          <a:ext cx="1727200" cy="0"/>
+          <a:off x="8286750" y="5334000"/>
+          <a:ext cx="2825750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4450,22 +4505,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A0FFB6-4B12-40FE-97DC-939A4A471CE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD46E0C-78FB-4A7C-A775-D4CF66E12136}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,12 +4531,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5537200" y="1498600"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="9398000" y="4064000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4503,22 +4559,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBDA5DE-1413-48C4-B0FC-AB8E67A59650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6129B5C4-9BA5-4F54-B1C0-3B226E2AFCEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,12 +4585,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6197600" y="1498600"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="10509250" y="4064000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4556,22 +4613,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D084A86-616A-4101-98EB-8BA7FBEB96B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D444E9-C774-4EA1-9D3E-3FBAE2E3026F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4582,12 +4639,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="1270000"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="11620500" y="3429000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4609,22 +4667,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EA2A00-F992-4B31-8947-02345BEA5D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09B7E6A-04E6-421B-843A-C8A791AF61B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,12 +4693,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7518400" y="1270000"/>
-          <a:ext cx="1790700" cy="0"/>
+          <a:off x="12731750" y="3429000"/>
+          <a:ext cx="2952750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4662,22 +4721,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65296DB8-484A-460D-90EA-02CBBD869B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2583C6F-FE6A-4E55-9A12-76096816E537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,12 +4747,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8178800" y="1041400"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="13843000" y="2794000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4715,22 +4775,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612865E9-753B-4E56-8F53-042B567BF5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802474DE-D78C-4772-9B49-4709F46570B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,12 +4801,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839200" y="1041400"/>
-          <a:ext cx="1066800" cy="0"/>
+          <a:off x="14954250" y="2794000"/>
+          <a:ext cx="1714500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4768,22 +4829,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BB6722-C6D5-4845-A083-612BFB7BB4F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48284F44-0D13-470F-8699-BACC8C3F6AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,12 +4855,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9499600" y="812800"/>
-          <a:ext cx="1130300" cy="0"/>
+          <a:off x="16065500" y="2159000"/>
+          <a:ext cx="1841500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4821,22 +4883,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458A334-1FCD-40F4-A1F3-544B7A593B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFA3EE0-1CCC-433A-8971-4AA4EEEDCDAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4847,12 +4909,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10756900" y="812800"/>
-          <a:ext cx="1193800" cy="0"/>
+          <a:off x="18161000" y="2159000"/>
+          <a:ext cx="1968500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4874,13 +4937,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4889,7 +4952,7 @@
         <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408D1F7-2033-49C5-A3F6-DDB07D265996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DB3929-1C03-4A95-962A-28BCF78EFC10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4900,14 +4963,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8432800" y="2768600"/>
-          <a:ext cx="3860800" cy="660400"/>
+          <a:off x="12017375" y="7953375"/>
+          <a:ext cx="10922000" cy="1111250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4929,22 +4995,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CD7302-B2EE-4165-A63C-7EC0927C2953}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39DEA63-A78A-47E4-AB3A-4AF14FDBC7E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4955,12 +5021,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10756900" y="5156200"/>
-          <a:ext cx="1130300" cy="0"/>
+          <a:off x="18161000" y="14224000"/>
+          <a:ext cx="1841500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4982,22 +5049,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D5DD88-1523-4683-9C11-54414F0B7B1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D9137C-C2F9-42A7-994D-A0791EB258A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5008,12 +5075,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11480800" y="4927600"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="19399250" y="13589000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5035,22 +5103,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0622533A-A992-4B8D-9BEF-7803016073E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAA13EC-C4A6-42AA-A713-38AA20C76F90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,12 +5129,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12141200" y="4927600"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="20510500" y="13589000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5088,22 +5157,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1D554B-64E4-4C74-A090-7366DD6D0D70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BA805D-0F46-46F6-8C9A-181DFD77A40B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5114,65 +5183,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12141200" y="4470400"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="20510500" y="12319000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EC5EF5-ECC5-42BF-B887-0AA1457838A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="0"/>
-          <a:endCxn id="33" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12674600" y="2540000"/>
-          <a:ext cx="0" cy="1803400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5195,21 +5212,77 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E9704A-08F5-4AB7-A78C-896A62740E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21367750" y="6858000"/>
+          <a:ext cx="0" cy="5207000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7576A462-707B-4939-9D74-726E42715F0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B3802A-2D33-4478-85AC-CD5B6D4046E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,12 +5293,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12801600" y="2768600"/>
-          <a:ext cx="533400" cy="2159000"/>
+          <a:off x="21621750" y="7493000"/>
+          <a:ext cx="857250" cy="6096000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5247,22 +5323,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C53B85D-FAE0-46C5-9562-3D829B511C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6693D7B8-0EAB-4678-9809-0019607CC99D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5273,12 +5349,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13398500" y="2641600"/>
-          <a:ext cx="469900" cy="0"/>
+          <a:off x="22606000" y="7239000"/>
+          <a:ext cx="730250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5300,22 +5377,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0FE3E-CD7B-454D-BE37-E9A459DA6920}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF73F03-FA76-4A5E-BF0F-ABE081633D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5326,12 +5403,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14122400" y="2641600"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="23844250" y="7239000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5353,22 +5431,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C20D07C-5329-4DD0-99E5-CA80EDC8D872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8D82C5-4DE9-405C-A2E1-BBCA5E295CCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5379,12 +5457,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14782800" y="2641600"/>
-          <a:ext cx="1727200" cy="0"/>
+          <a:off x="24955500" y="7239000"/>
+          <a:ext cx="2825750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5406,22 +5485,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F708A32-47DC-4B58-B5E8-8891A359C609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE52815-3D52-4DC1-9502-98F6AA7FD923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,12 +5511,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14058900" y="2870200"/>
-          <a:ext cx="469900" cy="0"/>
+          <a:off x="23717250" y="7874000"/>
+          <a:ext cx="730250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5459,22 +5539,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E7AFAF-34FD-4EC5-A07D-7D169AEAEFF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C76784-4018-4656-BBBF-56ED3E92DBA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5485,12 +5565,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14782800" y="2870200"/>
-          <a:ext cx="1130300" cy="0"/>
+          <a:off x="24955500" y="7874000"/>
+          <a:ext cx="1841500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5512,22 +5593,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBB8719-FC80-495A-B97B-073B0A79EDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B456D4-8428-4CFC-8BD5-2C8672A9AE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,12 +5619,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16040100" y="3098800"/>
-          <a:ext cx="469900" cy="0"/>
+          <a:off x="27051000" y="8509000"/>
+          <a:ext cx="730250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5565,22 +5647,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD77160-4D48-4046-B0D9-6D9773412FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED456ECD-9C84-43A5-8623-A073F48E1FA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5591,12 +5673,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16764000" y="2184400"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="28289250" y="5969000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5618,13 +5701,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5633,7 +5716,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986FFB2A-B0AA-44FD-9236-BEA371DC67A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0775D87-ADA2-460A-B8AE-8DC716F0F79A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,12 +5727,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17297400" y="2311400"/>
-          <a:ext cx="0" cy="5918200"/>
+          <a:off x="29146500" y="6223000"/>
+          <a:ext cx="0" cy="16637000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5671,22 +5757,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B05287-495A-42B7-B919-D38A6D788FED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEA4BE7-1563-4642-867B-9787302E351E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5697,12 +5783,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17360900" y="8356600"/>
-          <a:ext cx="3835400" cy="0"/>
+          <a:off x="29273500" y="23114000"/>
+          <a:ext cx="6413500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5724,22 +5811,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4731613F-AE30-49B4-8169-D498C45FEEEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7693468-8585-43CA-A7AC-7D3724BF6761}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,12 +5837,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18084800" y="7899400"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="30511750" y="21844000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5777,22 +5865,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8742049-0B60-48A4-8734-9BA4DB374368}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52815C55-0FE8-473B-8440-1CA719930879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,12 +5891,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18745200" y="7899400"/>
-          <a:ext cx="1727200" cy="0"/>
+          <a:off x="31623000" y="21844000"/>
+          <a:ext cx="2825750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5830,22 +5919,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEAEDC-D674-46B0-9D93-6AA8F1AF3B4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D861BA-1E71-41A2-8C81-3BB351266D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5856,12 +5945,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20726400" y="7899400"/>
-          <a:ext cx="406400" cy="0"/>
+          <a:off x="34956750" y="21844000"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -6180,265 +6270,1757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI45"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="14.58203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4" t="s">
+    <row r="3" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3"/>
+    <row r="4" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3"/>
+    <row r="5" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3"/>
+    <row r="6" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3"/>
+    <row r="7" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3"/>
+    <row r="8" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3"/>
+    <row r="9" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3"/>
+    <row r="10" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3"/>
+    <row r="11" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3"/>
+    <row r="12" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3"/>
+    <row r="13" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3"/>
+    <row r="14" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3"/>
+    <row r="15" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4" t="s">
+    <row r="16" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3"/>
+    <row r="17" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3"/>
+    <row r="18" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3"/>
+    <row r="19" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3"/>
+    <row r="20" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3"/>
+    <row r="21" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3"/>
+    <row r="22" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3"/>
+    <row r="23" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3"/>
+    <row r="24" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3"/>
+    <row r="25" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3"/>
+    <row r="26" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3"/>
+    <row r="27" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3"/>
+    <row r="28" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3"/>
+    <row r="29" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
+    <row r="30" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="8"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="8"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="8"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="8"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+    </row>
+    <row r="36" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="8"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+    </row>
+    <row r="37" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="8"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+    </row>
+    <row r="38" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="8"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+    </row>
+    <row r="39" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+    </row>
+    <row r="40" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+    </row>
+    <row r="41" spans="1:40" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="A31:A45"/>
+  <mergeCells count="4">
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>